--- a/需求确认/需求确认_20190413.xlsx
+++ b/需求确认/需求确认_20190413.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="67">
   <si>
     <t>模块名称</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>需求已确认</t>
+  </si>
+  <si>
+    <t>已完成</t>
   </si>
   <si>
     <t>需求新增</t>
@@ -173,7 +176,9 @@
 开发办楼盘操作员申请--》楼盘管理员审核</t>
   </si>
   <si>
-    <t>楼盘表的合并、分拆：两幢及以上楼合并或一幢楼分成多幢楼（待定）
+    <t>楼盘表的合并、分拆：两幢及以上楼合并或一幢楼分成多幢楼（用原坐落、现坐落区分）
+合并：选择主楼盘中、把从楼盘幢信息坐落更新原坐落和现坐落
+拆分：先维护幢信息、然后拆分现有幢的户室到新楼盘幢里面，只采集幢信息
 楼幢生命周期（待定）</t>
   </si>
   <si>
@@ -181,7 +186,8 @@
   </si>
   <si>
     <t>1.测绘成果的变更。测绘公司通过终端申报测绘成果变更。 测绘成果更新管理应能提供数据提取及变更后数据提交的接口功能，同时应能根据提交的变更信息进行数据的更新处理。可查询测绘成果变更过程的历史数据。
-2.测绘成果注销</t>
+变更原因、附件信息、时间（创建变更案件同新增测绘成果）
+2.测绘成果注销：注销原因、附件信息、注销人、时间（创建注销案件）</t>
   </si>
   <si>
     <t>租赁合同备案管理</t>
@@ -238,7 +244,8 @@
     <t>1.行政复议、行政诉讼、信访情况
 2.安置房源信息的管理，调配
 3.征收项目的房屋调查信息、评估报告信息、网签的补偿安置协议、项目竣工验收信息的审批；补偿费用的到账和拨付信息的管理
-4.征收评估：系统上传评估委托书或委托合同，获取所需评估的征收项目信息并填写相应的评估报告</t>
+4.征收评估：系统上传评估委托书或委托合同，获取所需评估的征收项目信息并填写相应的评估报告
+参考征收系统做</t>
   </si>
   <si>
     <t>接口封装</t>
@@ -262,8 +269,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -290,6 +297,43 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -300,6 +344,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -309,45 +383,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -359,46 +435,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -406,35 +442,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -445,25 +452,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,151 +614,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,7 +665,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,17 +696,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,15 +720,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -743,11 +735,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,10 +766,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -771,16 +778,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -789,115 +796,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1320,13 +1327,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.75" style="4" customWidth="1"/>
@@ -1349,7 +1356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="36" customHeight="1" spans="1:4">
+    <row r="2" s="1" customFormat="1" ht="36" customHeight="1" spans="1:5">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1362,33 +1369,42 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="53" customHeight="1" spans="1:4">
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="53" customHeight="1" spans="1:5">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
+    </row>
+    <row r="4" s="1" customFormat="1" ht="44" customHeight="1" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="38" customHeight="1" spans="1:4">
@@ -1396,44 +1412,50 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="23" customHeight="1" spans="1:4">
+    <row r="6" s="1" customFormat="1" ht="23" customHeight="1" spans="1:5">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="58" customHeight="1" spans="1:4">
+    </row>
+    <row r="7" s="1" customFormat="1" ht="58" customHeight="1" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="21" customHeight="1" spans="1:4">
+    </row>
+    <row r="8" s="1" customFormat="1" ht="21" customHeight="1" spans="1:5">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
@@ -1441,63 +1463,75 @@
         <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="101" customHeight="1" spans="1:4">
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="101" customHeight="1" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="18" customHeight="1" spans="1:4">
+    </row>
+    <row r="10" s="1" customFormat="1" ht="18" customHeight="1" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="11" ht="26" customHeight="1" spans="1:5">
+      <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" ht="26" customHeight="1" spans="1:4">
-      <c r="A11" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="12" ht="54" spans="1:4">
       <c r="A12" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>7</v>
@@ -1505,27 +1539,27 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:4">
       <c r="A14" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>7</v>
@@ -1533,13 +1567,13 @@
     </row>
     <row r="15" ht="76" customHeight="1" spans="1:4">
       <c r="A15" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>7</v>
@@ -1547,13 +1581,13 @@
     </row>
     <row r="16" ht="51" customHeight="1" spans="1:4">
       <c r="A16" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>7</v>
@@ -1561,13 +1595,13 @@
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:4">
       <c r="A17" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>7</v>
@@ -1575,13 +1609,13 @@
     </row>
     <row r="18" ht="57" customHeight="1" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>7</v>
@@ -1589,13 +1623,13 @@
     </row>
     <row r="19" ht="54" customHeight="1" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>7</v>
@@ -1603,13 +1637,13 @@
     </row>
     <row r="20" ht="58" customHeight="1" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>7</v>
@@ -1617,13 +1651,13 @@
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>7</v>
@@ -1631,13 +1665,13 @@
     </row>
     <row r="22" ht="70" customHeight="1" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>7</v>
@@ -1645,27 +1679,27 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>7</v>
@@ -1673,13 +1707,13 @@
     </row>
     <row r="25" ht="29" customHeight="1" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>7</v>
@@ -1687,83 +1721,83 @@
     </row>
     <row r="26" ht="45" customHeight="1" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" ht="44" customHeight="1" spans="1:4">
+      <c r="A27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" ht="51" customHeight="1" spans="1:4">
-      <c r="A27" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="B27" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" ht="35" customHeight="1" spans="1:4">
+    <row r="28" ht="60" customHeight="1" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="50" customHeight="1" spans="1:4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="74" customHeight="1" spans="1:4">
       <c r="A29" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" ht="39" customHeight="1" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="35" customHeight="1" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>7</v>
@@ -1771,27 +1805,27 @@
     </row>
     <row r="32" s="2" customFormat="1" ht="53" customHeight="1" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" ht="26" customHeight="1" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>7</v>
@@ -1799,27 +1833,27 @@
     </row>
     <row r="34" s="2" customFormat="1" ht="38" customHeight="1" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" ht="126" customHeight="1" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>7</v>
@@ -1827,41 +1861,41 @@
     </row>
     <row r="36" s="2" customFormat="1" ht="38" customHeight="1" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" ht="87" customHeight="1" spans="1:4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" ht="117" customHeight="1" spans="1:4">
       <c r="A37" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" ht="35" customHeight="1" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>7</v>
@@ -1869,13 +1903,13 @@
     </row>
     <row r="39" ht="54" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>7</v>
@@ -1921,7 +1955,7 @@
       <formula>"优化"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B12 B14:B28 B38:B39">
+  <conditionalFormatting sqref="B1:B12 B14:B29 B38:B39">
     <cfRule type="cellIs" dxfId="3" priority="22" operator="equal">
       <formula>"需求确认"</formula>
     </cfRule>
@@ -1935,12 +1969,12 @@
       <formula>"bug"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B12 B14:B28 B38:B39">
+  <conditionalFormatting sqref="B2:B12 B14:B29 B38:B39">
     <cfRule type="cellIs" dxfId="2" priority="20" operator="equal">
       <formula>"需求新增"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:B30 B32:B37">
+  <conditionalFormatting sqref="B30 B32:B37">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"需求新增"</formula>
     </cfRule>
@@ -1958,11 +1992,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32 B33 B34 B35 B29:B30 B36:B37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B8 B13 B26 B27 B31 B1:B2 B4:B5 B6:B7 B9:B12 B14:B25 B28:B29 B38:B39">
+      <formula1>"bug,优化,新需求,需求变更,需求确认,需求新增"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30 B32 B33 B34 B35 B36:B37">
       <formula1>"bug,优化,新需求,需求变更,需求确认"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B8 B13 B28 B31 B1:B2 B4:B5 B6:B7 B9:B12 B14:B25 B26:B27 B38:B39">
-      <formula1>"bug,优化,新需求,需求变更,需求确认,需求新增"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求确认/需求确认_20190413.xlsx
+++ b/需求确认/需求确认_20190413.xlsx
@@ -269,8 +269,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -307,7 +307,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,38 +382,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,29 +429,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -396,52 +436,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -452,19 +452,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,25 +620,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,133 +632,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,7 +665,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,26 +685,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -716,6 +696,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,26 +739,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,10 +766,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,133 +778,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1329,8 +1329,8 @@
   <sheetPr/>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/需求确认/需求确认_20190413.xlsx
+++ b/需求确认/需求确认_20190413.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28245" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -268,10 +268,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -299,17 +299,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -321,6 +315,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -328,8 +338,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,9 +404,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,6 +414,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,61 +435,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,20 +442,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -452,187 +452,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,7 +665,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,30 +700,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -720,6 +711,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,15 +750,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -766,10 +766,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,133 +778,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1329,8 +1329,8 @@
   <sheetPr/>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/需求确认/需求确认_20190413.xlsx
+++ b/需求确认/需求确认_20190413.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -268,10 +268,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -297,6 +297,13 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -307,6 +314,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -315,6 +359,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -323,45 +412,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,32 +427,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -411,37 +442,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -452,13 +452,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,169 +584,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,17 +670,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,6 +705,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -715,20 +729,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,17 +758,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -766,10 +766,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,16 +778,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -796,115 +796,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1329,8 +1329,8 @@
   <sheetPr/>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1523,7 +1523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" ht="54" spans="1:4">
+    <row r="12" ht="57" customHeight="1" spans="1:4">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" ht="21" customHeight="1" spans="1:4">
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
